--- a/r5-core-Remove-fixedCodeSystem_Ext-Religion/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r5-core-Remove-fixedCodeSystem_Ext-Religion/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-27T14:11:05+00:00</t>
+    <t>2024-04-27T14:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
